--- a/new-stats/athens-kallithea-fc.xlsx
+++ b/new-stats/athens-kallithea-fc.xlsx
@@ -2250,22 +2250,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Panetolikos</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M33" t="n">
+        <v>14</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/athens-kallithea-fc.xlsx
+++ b/new-stats/athens-kallithea-fc.xlsx
@@ -2308,22 +2308,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Levadiakos</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/athens-kallithea-fc.xlsx
+++ b/new-stats/athens-kallithea-fc.xlsx
@@ -2366,40 +2366,120 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Volos</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9</v>
+      </c>
+      <c r="N36" t="n">
+        <v>14</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/athens-kallithea-fc.xlsx
+++ b/new-stats/athens-kallithea-fc.xlsx
@@ -2482,22 +2482,62 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Athens Kallithea</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Lamia</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M37" t="n">
+        <v>7</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
